--- a/manualSteps/PostDeploymentSteps.xlsx
+++ b/manualSteps/PostDeploymentSteps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUKU\NCT Project\sourcecode_sample\manualSteps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\css116284\Documents\backup\Salesforce\manualSteps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC6F3455-0DB5-40E2-94D0-6E5D34BCDE09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9912697D-E1A2-4E06-B058-C6E91775E998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,456 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+  <si>
+    <t>PostDeployment Manual Steps</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record create for Account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Switch to Lightening </t>
+  </si>
+  <si>
+    <t>2.Go to Account</t>
+  </si>
+  <si>
+    <t>3.Click New</t>
+  </si>
+  <si>
+    <t>4.Select Record Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Fill the fields in selected record type </t>
+  </si>
+  <si>
+    <t>6.Click on save</t>
+  </si>
+  <si>
+    <t>Record create for Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Switch to Lightening </t>
+  </si>
+  <si>
+    <t>2.Go to Contact</t>
+  </si>
+  <si>
+    <t>User Creation for community</t>
+  </si>
+  <si>
+    <t>3.Select Enable customer user</t>
+  </si>
+  <si>
+    <t>4.Fill user name, Email,license,profile</t>
+  </si>
+  <si>
+    <t>5.Then click on save</t>
+  </si>
+  <si>
+    <t>Manual User creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Go to setup </t>
+  </si>
+  <si>
+    <t>3.Quick Find</t>
+  </si>
+  <si>
+    <t>4.In Administration , Go to Users link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Click on Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.click the button "New User" </t>
+  </si>
+  <si>
+    <t>7.Create "New User"</t>
+  </si>
+  <si>
+    <t>8.If needed "Generate new password 
+&amp; notify user immediately"</t>
+  </si>
+  <si>
+    <t>Community license for Profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to setup </t>
+  </si>
+  <si>
+    <t>2.Quick Find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Communities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.All Communities </t>
+  </si>
+  <si>
+    <t>5.Go to Workspaces next to community</t>
+  </si>
+  <si>
+    <t>6.Go to Administration (wrench Icon symbol) Template</t>
+  </si>
+  <si>
+    <t>7.Go to Members list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.select Profiles </t>
+  </si>
+  <si>
+    <t>9.There is a Multipicklist 
+Available Profiles &amp; Selected Profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.Required profiles to be added to Selected profiles </t>
+  </si>
+  <si>
+    <t>Enable communities</t>
+  </si>
+  <si>
+    <t>3.All Communities</t>
+  </si>
+  <si>
+    <t>4.New Community</t>
+  </si>
+  <si>
+    <t>5.select the required template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.Get started </t>
+  </si>
+  <si>
+    <t>7.Give Name &amp; URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.Create </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.Click on "Workspaces" Next to Community </t>
+  </si>
+  <si>
+    <t>10.Go to Administration (wrench Icon symbol) Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.Go to Settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.change status from De-Active to Active </t>
+  </si>
+  <si>
+    <t>Enable Partner users</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tab / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tab </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Select the one record </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Go to related list </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manage External Account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enable as Partner</t>
+    </r>
+  </si>
+  <si>
+    <t>OWD &amp; Sharing rules creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to setup </t>
+  </si>
+  <si>
+    <t>In Administer, click on sharing settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click New button of specific object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 5 steps </t>
+  </si>
+  <si>
+    <t>Step-1.Rule Name</t>
+  </si>
+  <si>
+    <t>2.Select your rule type</t>
+  </si>
+  <si>
+    <t>3.Select which records to be shared</t>
+  </si>
+  <si>
+    <t>4.Select the users to share with</t>
+  </si>
+  <si>
+    <t>5.Select the level of access for the users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click save button </t>
+  </si>
+  <si>
+    <t>Profile Permissions(FLS, CRUD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Administer, Go to Profiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on New profile </t>
+  </si>
+  <si>
+    <t>Enter the details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on the specific profile </t>
+  </si>
+  <si>
+    <t>Go to Field-Level Security section</t>
+  </si>
+  <si>
+    <t>There is a View option next to specific object &amp; provide 
+permissions if required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Standard Object Permissions &amp; Custom Object Permissions </t>
+  </si>
+  <si>
+    <t>Provide Basic Access &amp; Data Administration if required.</t>
+  </si>
+  <si>
+    <t>Sharing Sets</t>
+  </si>
+  <si>
+    <t>Quick Find</t>
+  </si>
+  <si>
+    <t>Communities Settings</t>
+  </si>
+  <si>
+    <t>select Sharing sets</t>
+  </si>
+  <si>
+    <t>Click New, Give the label name and Sharing ser name</t>
+  </si>
+  <si>
+    <t>then Select profile,select objects</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Domain needs to create for Communities</t>
+  </si>
+  <si>
+    <t>Quick Find Enter Domain</t>
+  </si>
+  <si>
+    <t>select Company Settings</t>
+  </si>
+  <si>
+    <t>Click on MY Domain</t>
+  </si>
+  <si>
+    <t>select New add Domain name as "ournct"</t>
+  </si>
+  <si>
+    <t>Public Groups Users need to Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Switch to Lightening </t>
+  </si>
+  <si>
+    <t>2. Go to Setup</t>
+  </si>
+  <si>
+    <t>3. Search Quick Find box in enter Public Groups</t>
+  </si>
+  <si>
+    <t>4. Click on Public Groups</t>
+  </si>
+  <si>
+    <t>5. Click New</t>
+  </si>
+  <si>
+    <t>6. Enter Label Name</t>
+  </si>
+  <si>
+    <t>7. Add Available Members to Selected Members</t>
+  </si>
+  <si>
+    <t>8. Click Save</t>
+  </si>
+  <si>
+    <t>Queues,related users need to Add</t>
+  </si>
+  <si>
+    <t>3. Search Quick Find box in enter Queues</t>
+  </si>
+  <si>
+    <t>4. Click on Queues</t>
+  </si>
+  <si>
+    <t>7. Enter Queue Email</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Enable field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Send Email to Members</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9. Supported Objects: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add Available Objects to Selected objects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. Queue Members:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Add Available Members to Selected Members</t>
+    </r>
+  </si>
+  <si>
+    <t>11. Click Save</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34,16 +481,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -51,12 +533,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,14 +1021,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="64.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+      <c r="B78" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A95:A105"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A87:A94"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="A37:A48"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
